--- a/simulations/raw_inclusion_exclusion/van_der_Waal_2022 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_der_Waal_2022 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>77</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D3">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>148</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>162</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>177</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>308</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>411</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>431</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>503</v>
       </c>
       <c r="C19">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D19">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>527</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>612</v>
       </c>
       <c r="C23">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D23">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>822</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>874</v>
       </c>
       <c r="C27">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="D27">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>930</v>
       </c>
       <c r="C29">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -730,10 +730,10 @@
         <v>1046</v>
       </c>
       <c r="C31">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D31">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1276</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -785,10 +785,10 @@
         <v>1285</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -807,10 +807,10 @@
         <v>1337</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D38">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -829,10 +829,10 @@
         <v>1379</v>
       </c>
       <c r="C40">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -865,10 +865,10 @@
         <v>1392</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -887,10 +887,10 @@
         <v>1497</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -909,10 +909,10 @@
         <v>1518</v>
       </c>
       <c r="C47">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="D47">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -953,10 +953,10 @@
         <v>1607</v>
       </c>
       <c r="C51">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -975,10 +975,10 @@
         <v>1614</v>
       </c>
       <c r="C53">
-        <v>1005</v>
+        <v>1056</v>
       </c>
       <c r="D53">
-        <v>1005</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -997,10 +997,10 @@
         <v>1671</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1019,10 +1019,10 @@
         <v>1680</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>1732</v>
       </c>
       <c r="C59">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D59">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>1747</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1085,10 +1085,10 @@
         <v>1759</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1107,10 +1107,10 @@
         <v>1786</v>
       </c>
       <c r="C65">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1121,7 +1121,7 @@
         <v>121.34375</v>
       </c>
       <c r="C66">
-        <v>134.7272727272727</v>
+        <v>121.3030303030303</v>
       </c>
     </row>
   </sheetData>
